--- a/popolazione_regioni.xlsx
+++ b/popolazione_regioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSSUP\Codice\pyWorksMV\notebooks\analisi_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1584A331-BBEE-499F-B39B-1343CDB7E5A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A75806-5BC2-44FF-8AEE-4BD004DB244B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="2310" windowWidth="18045" windowHeight="10215" xr2:uid="{82829CD5-CD6A-4D72-A694-BBA67740DE33}"/>
+    <workbookView xWindow="17130" yWindow="7995" windowWidth="20820" windowHeight="10215" xr2:uid="{82829CD5-CD6A-4D72-A694-BBA67740DE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>106441</v>
+        <v>502891</v>
       </c>
     </row>
     <row r="23" spans="1:2">
